--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.4147</v>
+        <v>16.38969999999999</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.2204</v>
+        <v>-11.383</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.46509999999999</v>
+        <v>-13.65519999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.1661</v>
+        <v>-13.2738</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.2817</v>
+        <v>-12.58930000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -859,13 +859,13 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.33540000000001</v>
+        <v>-11.3514</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.16510000000001</v>
+        <v>17.12690000000001</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.02220000000001</v>
+        <v>-12.64920000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.72009999999998</v>
+        <v>16.69299999999998</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.96740000000001</v>
+        <v>-10.85620000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.72930000000001</v>
+        <v>16.7698</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.1603</v>
+        <v>16.199</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.4567</v>
+        <v>17.459</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.06480000000001</v>
+        <v>17.0467</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.8913</v>
+        <v>16.88120000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.25440000000001</v>
+        <v>-10.35640000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.64120000000001</v>
+        <v>16.58140000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.3643</v>
+        <v>16.3745</v>
       </c>
     </row>
     <row r="57">
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.66169999999999</v>
+        <v>-14.11039999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7925</v>
+        <v>16.7891</v>
       </c>
     </row>
     <row r="58">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.84670000000001</v>
+        <v>-12.8144</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.1311</v>
+        <v>-11.5109</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.1364</v>
+        <v>17.2075</v>
       </c>
     </row>
     <row r="74">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.78300000000001</v>
+        <v>-10.95740000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.62880000000001</v>
+        <v>-13.7639</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.32260000000001</v>
+        <v>17.45280000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.39759999999998</v>
+        <v>16.40659999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.0894</v>
+        <v>-10.3564</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.77370000000002</v>
+        <v>18.59120000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.38130000000001</v>
+        <v>-11.3952</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
